--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H2">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I2">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J2">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N2">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P2">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q2">
-        <v>86.47242411488276</v>
+        <v>76.60029736603855</v>
       </c>
       <c r="R2">
-        <v>778.2518170339449</v>
+        <v>689.402676294347</v>
       </c>
       <c r="S2">
-        <v>0.002774387158701674</v>
+        <v>0.000788311360073266</v>
       </c>
       <c r="T2">
-        <v>0.002774387158701675</v>
+        <v>0.0007883113600732661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H3">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I3">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J3">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.794365</v>
       </c>
       <c r="O3">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P3">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q3">
-        <v>177.8961052233527</v>
+        <v>141.5420011541428</v>
       </c>
       <c r="R3">
-        <v>1601.064947010175</v>
+        <v>1273.878010387285</v>
       </c>
       <c r="S3">
-        <v>0.005707630784803758</v>
+        <v>0.001456641439707827</v>
       </c>
       <c r="T3">
-        <v>0.005707630784803759</v>
+        <v>0.001456641439707827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H4">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I4">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J4">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N4">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O4">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P4">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q4">
-        <v>412.1533302140277</v>
+        <v>1016.998697229377</v>
       </c>
       <c r="R4">
-        <v>3709.37997192625</v>
+        <v>9152.988275064392</v>
       </c>
       <c r="S4">
-        <v>0.0132235555839486</v>
+        <v>0.01046616858906707</v>
       </c>
       <c r="T4">
-        <v>0.0132235555839486</v>
+        <v>0.01046616858906707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H5">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I5">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J5">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N5">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O5">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P5">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q5">
-        <v>30.84151121830555</v>
+        <v>26.13815872777155</v>
       </c>
       <c r="R5">
-        <v>277.5736009647499</v>
+        <v>235.243428549944</v>
       </c>
       <c r="S5">
-        <v>0.0009895211514521856</v>
+        <v>0.0002689938311601897</v>
       </c>
       <c r="T5">
-        <v>0.0009895211514521858</v>
+        <v>0.0002689938311601898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J6">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N6">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O6">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P6">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q6">
-        <v>3156.100667557258</v>
+        <v>3513.862613510234</v>
       </c>
       <c r="R6">
-        <v>28404.90600801532</v>
+        <v>31624.76352159211</v>
       </c>
       <c r="S6">
-        <v>0.1012605492822492</v>
+        <v>0.03616197209692514</v>
       </c>
       <c r="T6">
-        <v>0.1012605492822492</v>
+        <v>0.03616197209692514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J7">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>115.794365</v>
       </c>
       <c r="O7">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P7">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q7">
         <v>6492.91403818327</v>
@@ -883,10 +883,10 @@
         <v>58436.22634364943</v>
       </c>
       <c r="S7">
-        <v>0.2083190972668607</v>
+        <v>0.06682007867176194</v>
       </c>
       <c r="T7">
-        <v>0.2083190972668608</v>
+        <v>0.06682007867176196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J8">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N8">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O8">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P8">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q8">
-        <v>15042.9158652505</v>
+        <v>46652.47816345041</v>
       </c>
       <c r="R8">
-        <v>135386.2427872545</v>
+        <v>419872.3034710537</v>
       </c>
       <c r="S8">
-        <v>0.4826379395879303</v>
+        <v>0.48011143267602</v>
       </c>
       <c r="T8">
-        <v>0.4826379395879304</v>
+        <v>0.4801114326760202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J9">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N9">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O9">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P9">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q9">
-        <v>1125.6642234899</v>
+        <v>1199.027965917968</v>
       </c>
       <c r="R9">
-        <v>10130.9780114091</v>
+        <v>10791.25169326171</v>
       </c>
       <c r="S9">
-        <v>0.03611588779460116</v>
+        <v>0.01233947385428482</v>
       </c>
       <c r="T9">
-        <v>0.03611588779460118</v>
+        <v>0.01233947385428482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H10">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N10">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O10">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P10">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q10">
-        <v>564.5551450119452</v>
+        <v>2307.630720105264</v>
       </c>
       <c r="R10">
-        <v>5080.996305107506</v>
+        <v>20768.67648094737</v>
       </c>
       <c r="S10">
-        <v>0.01811322581426889</v>
+        <v>0.02374836096027428</v>
       </c>
       <c r="T10">
-        <v>0.0181132258142689</v>
+        <v>0.02374836096027428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H11">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>115.794365</v>
       </c>
       <c r="O11">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P11">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q11">
-        <v>1161.435712129467</v>
+        <v>4264.039191488667</v>
       </c>
       <c r="R11">
-        <v>10452.9214091652</v>
+        <v>38376.35272339801</v>
       </c>
       <c r="S11">
-        <v>0.03726358267820253</v>
+        <v>0.04388221260272083</v>
       </c>
       <c r="T11">
-        <v>0.03726358267820254</v>
+        <v>0.04388221260272084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H12">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N12">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O12">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P12">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q12">
-        <v>2690.837980868972</v>
+        <v>30637.70659817363</v>
       </c>
       <c r="R12">
-        <v>24217.54182782075</v>
+        <v>275739.3593835627</v>
       </c>
       <c r="S12">
-        <v>0.08633302947944932</v>
+        <v>0.3152997179961336</v>
       </c>
       <c r="T12">
-        <v>0.08633302947944935</v>
+        <v>0.3152997179961337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H13">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N13">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O13">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P13">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q13">
-        <v>201.3559122050944</v>
+        <v>787.4279881573323</v>
       </c>
       <c r="R13">
-        <v>1812.20320984585</v>
+        <v>7086.851893415991</v>
       </c>
       <c r="S13">
-        <v>0.00646031683358728</v>
+        <v>0.008103603375556505</v>
       </c>
       <c r="T13">
-        <v>0.006460316833587281</v>
+        <v>0.008103603375556509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H14">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I14">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J14">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.76192366666666</v>
+        <v>20.88869433333333</v>
       </c>
       <c r="N14">
-        <v>56.285771</v>
+        <v>62.666083</v>
       </c>
       <c r="O14">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="P14">
-        <v>0.1222461152048115</v>
+        <v>0.06073223131780172</v>
       </c>
       <c r="Q14">
-        <v>3.053009012760111</v>
+        <v>3.263642639741889</v>
       </c>
       <c r="R14">
-        <v>27.477081114841</v>
+        <v>29.372783757677</v>
       </c>
       <c r="S14">
-        <v>9.795294959175679E-05</v>
+        <v>3.358690052904015E-05</v>
       </c>
       <c r="T14">
-        <v>9.795294959175683E-05</v>
+        <v>3.358690052904015E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H15">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I15">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J15">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>115.794365</v>
       </c>
       <c r="O15">
-        <v>0.2514918252404856</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="P15">
-        <v>0.2514918252404857</v>
+        <v>0.1122209945765712</v>
       </c>
       <c r="Q15">
-        <v>6.28082788404611</v>
+        <v>6.030557663159444</v>
       </c>
       <c r="R15">
-        <v>56.527450956415</v>
+        <v>54.275018968435</v>
       </c>
       <c r="S15">
-        <v>0.0002015145106185805</v>
+        <v>6.206186238061771E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002015145106185805</v>
+        <v>6.206186238061772E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H16">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I16">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J16">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.42491666666668</v>
+        <v>277.3327996666667</v>
       </c>
       <c r="N16">
-        <v>268.27475</v>
+        <v>831.9983990000001</v>
       </c>
       <c r="O16">
-        <v>0.5826613975855818</v>
+        <v>0.8063232422570387</v>
       </c>
       <c r="P16">
-        <v>0.5826613975855819</v>
+        <v>0.8063232422570388</v>
       </c>
       <c r="Q16">
-        <v>14.55155033136111</v>
+        <v>43.33038417565345</v>
       </c>
       <c r="R16">
-        <v>130.96395298225</v>
+        <v>389.973457580881</v>
       </c>
       <c r="S16">
-        <v>0.0004668729342535107</v>
+        <v>0.0004459229958179076</v>
       </c>
       <c r="T16">
-        <v>0.0004668729342535108</v>
+        <v>0.0004459229958179078</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H17">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I17">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J17">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.691683333333333</v>
+        <v>7.127805333333332</v>
       </c>
       <c r="N17">
-        <v>20.07505</v>
+        <v>21.383416</v>
       </c>
       <c r="O17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="P17">
-        <v>0.04360066196912096</v>
+        <v>0.02072353184858837</v>
       </c>
       <c r="Q17">
-        <v>1.088895248172222</v>
+        <v>1.113645929344889</v>
       </c>
       <c r="R17">
-        <v>9.800057233549998</v>
+        <v>10.022813364104</v>
       </c>
       <c r="S17">
-        <v>3.493618948032172E-05</v>
+        <v>1.146078758685277E-05</v>
       </c>
       <c r="T17">
-        <v>3.493618948032173E-05</v>
+        <v>1.146078758685277E-05</v>
       </c>
     </row>
   </sheetData>
